--- a/experiment_templates/NOMADS_Library_Worksheet.xlsx
+++ b/experiment_templates/NOMADS_Library_Worksheet.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\git\nomadic\experiment_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763CD31F-BE17-4485-A9AB-41F85C9A2C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56D7ED4-C876-46CF-A5DB-ECD79C30661D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="27288" windowHeight="17532" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Library" sheetId="2" r:id="rId1"/>
-    <sheet name="nomadic" sheetId="6" r:id="rId2"/>
+    <sheet name="nomadic" sheetId="6" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
   <si>
     <t>Date:</t>
   </si>
@@ -660,15 +660,6 @@
     <t>(first last)</t>
   </si>
   <si>
-    <t>2025-10-27</t>
-  </si>
-  <si>
-    <t>DB</t>
-  </si>
-  <si>
-    <t>ATSB</t>
-  </si>
-  <si>
     <t>Study / Project:</t>
   </si>
   <si>
@@ -678,13 +669,10 @@
     <t>(e.g. A, B or C etc)</t>
   </si>
   <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>Batch:</t>
+  </si>
+  <si>
+    <t>post_pcr_dna_conc_ngul</t>
   </si>
 </sst>
 </file>
@@ -845,17 +833,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -883,22 +862,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -907,46 +870,79 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -956,7 +952,53 @@
     <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Normal 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1020,64 +1062,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1126,6 +1110,12 @@
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1152,7 +1142,16 @@
           <color indexed="64"/>
         </horizontal>
       </border>
-      <protection locked="0" hidden="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1236,29 +1235,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tbl_SeqLib" displayName="tbl_SeqLib" ref="A9:E105" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tbl_SeqLib" displayName="tbl_SeqLib" ref="A9:E105" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A9:E105" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Well" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sample ID" dataDxfId="13"/>
-    <tableColumn id="26" xr3:uid="{CDAB9BF6-0E65-46A9-85EA-6751A98F15D6}" name="Sample Type" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="PCR [DNA] (ng / µl)" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Barcode#" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sample ID" dataDxfId="11"/>
+    <tableColumn id="26" xr3:uid="{CDAB9BF6-0E65-46A9-85EA-6751A98F15D6}" name="Sample Type" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="PCR [DNA] (ng / µl)" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Barcode#" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="tbl_nomadic" displayName="tbl_nomadic" ref="A1:C97" totalsRowShown="0">
-  <autoFilter ref="A1:C97" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="tbl_nomadic" displayName="tbl_nomadic" ref="A1:D97" totalsRowShown="0">
+  <autoFilter ref="A1:D97" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="sample_id"/>
-    <tableColumn id="9" xr3:uid="{98E62512-61AC-41C9-8930-37E9E6964CA3}" name="sample_type" dataDxfId="9">
+    <tableColumn id="9" xr3:uid="{98E62512-61AC-41C9-8930-37E9E6964CA3}" name="sample_type" dataDxfId="17">
       <calculatedColumnFormula>IF(LEN(Library!C10)=0,"",Library!C10)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="barcode" dataDxfId="8">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="barcode" dataDxfId="16">
       <calculatedColumnFormula>IF(ISBLANK(Library!B10),"",CONCATENATE("barcode",Library!E10))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{1FDA51E1-A0B8-4EA2-9C5A-4746ACED2260}" name="post_pcr_dna_conc_ngul" dataDxfId="15">
+      <calculatedColumnFormula>IF(LEN(Library!D10)=0,"",Library!D10)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1445,1294 +1447,1288 @@
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I115"/>
+  <dimension ref="A1:J115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:D10"/>
+      <selection activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.296875" customWidth="1"/>
-    <col min="2" max="2" width="30.3984375" customWidth="1"/>
-    <col min="3" max="3" width="24.3984375" customWidth="1"/>
-    <col min="4" max="4" width="28.5" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="7" width="11.8984375" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="17.3984375" customWidth="1"/>
+    <col min="1" max="1" width="13.296875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="30.3984375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="24.3984375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="28.5" style="15" customWidth="1"/>
+    <col min="5" max="5" width="24" style="15" customWidth="1"/>
+    <col min="6" max="7" width="11.8984375" style="15" customWidth="1"/>
+    <col min="8" max="8" width="11" style="15"/>
+    <col min="9" max="9" width="11" style="15" customWidth="1"/>
+    <col min="10" max="10" width="17.3984375" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="25"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="G3" s="26"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="22" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="26"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="25"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G6" s="27"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="24" t="str">
+      <c r="B7" s="23"/>
+      <c r="C7" s="12" t="str">
         <f>IF(OR(ISBLANK(C2),ISBLANK(C3),ISBLANK(C4), ISBLANK(C5), ISBLANK(C6)),"",CONCATENATE(C2,"_",C3,C5,"_",C4,"_Batch",C6))</f>
-        <v>2025-10-27_DB004_ATSB_BatchG</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="27"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-    </row>
-    <row r="9" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+        <v/>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+    </row>
+    <row r="9" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="G10" s="29"/>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F11"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="F11" s="15"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="G12" s="29"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6" t="s">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6" t="s">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="16" t="s">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="8" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="6" t="s">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="6" t="s">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="6" t="s">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="6" t="s">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="6" t="s">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="6" t="s">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="10" t="s">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="8" t="s">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="6" t="s">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="6" t="s">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="6" t="s">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="6" t="s">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="6" t="s">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="6" t="s">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="10" t="s">
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="8" t="s">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="6" t="s">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="6" t="s">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="6" t="s">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="6" t="s">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="6" t="s">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="6" t="s">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="10" t="s">
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="8" t="s">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="6" t="s">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="6" t="s">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="6" t="s">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="6" t="s">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="6" t="s">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="6" t="s">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="10" t="s">
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="7" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="8" t="s">
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="5" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="6" t="s">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="6" t="s">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="6" t="s">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="6" t="s">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="3" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="6" t="s">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="6" t="s">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="10" t="s">
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="7" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="8" t="s">
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="5" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="6" t="s">
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="3" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="6" t="s">
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="3" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="6" t="s">
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="6" t="s">
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="6" t="s">
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="3" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="6" t="s">
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="10" t="s">
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="8" t="s">
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="5" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="6" t="s">
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="3" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="6" t="s">
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="6" t="s">
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="3" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="6" t="s">
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="3" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="6" t="s">
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="3" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="6" t="s">
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="3" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="10" t="s">
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="7" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="7" t="s">
+      <c r="A82" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="8" t="s">
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="6" t="s">
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="3" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="6" t="s">
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="3" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="6" t="s">
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="3" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="6" t="s">
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="3" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="6" t="s">
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="3" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="6" t="s">
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="3" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="B89" s="9"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="10" t="s">
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="7" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="7" t="s">
+      <c r="A90" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="8" t="s">
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="6" t="s">
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="3" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="6" t="s">
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="3" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="6" t="s">
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="3" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="6" t="s">
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="3" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="6" t="s">
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="3" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="6" t="s">
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="3" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="9" t="s">
+      <c r="A97" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="B97" s="9"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="10" t="s">
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="7" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="7" t="s">
+      <c r="A98" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="8" t="s">
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="5" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="6" t="s">
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="3" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="6" t="s">
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="3" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="6" t="s">
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="3" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="5" t="s">
+      <c r="A102" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="6" t="s">
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="3" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="6" t="s">
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="3" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="6" t="s">
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="3" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="B105" s="9"/>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="10" t="s">
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
+      <c r="A106" s="24"/>
+      <c r="B106" s="24"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="24"/>
+      <c r="F106" s="24"/>
+      <c r="G106" s="24"/>
     </row>
     <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
+      <c r="A107" s="24"/>
+      <c r="B107" s="24"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="24"/>
+      <c r="F107" s="24"/>
+      <c r="G107" s="24"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
+      <c r="A108" s="24"/>
+      <c r="B108" s="24"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="24"/>
+      <c r="F108" s="24"/>
+      <c r="G108" s="24"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
+      <c r="A109" s="24"/>
+      <c r="B109" s="24"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="24"/>
+      <c r="F109" s="24"/>
+      <c r="G109" s="24"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
+      <c r="A110" s="24"/>
+      <c r="B110" s="24"/>
+      <c r="C110" s="24"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="24"/>
+      <c r="F110" s="24"/>
+      <c r="G110" s="24"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
+      <c r="A111" s="24"/>
+      <c r="B111" s="24"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="24"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
+      <c r="A112" s="24"/>
+      <c r="B112" s="24"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="24"/>
+      <c r="F112" s="24"/>
+      <c r="G112" s="24"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
+      <c r="A113" s="24"/>
+      <c r="B113" s="24"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="24"/>
+      <c r="F113" s="24"/>
+      <c r="G113" s="24"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
+      <c r="A114" s="24"/>
+      <c r="B114" s="24"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="24"/>
+      <c r="F114" s="24"/>
+      <c r="G114" s="24"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
+      <c r="A115" s="24"/>
+      <c r="B115" s="24"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="24"/>
+      <c r="F115" s="24"/>
+      <c r="G115" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2751,26 +2747,26 @@
     <mergeCell ref="A5:B5"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="B10:E105">
+    <cfRule type="expression" dxfId="9" priority="2" stopIfTrue="1">
+      <formula>COUNTIF(B10,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C2:C6">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>COUNTIF(C2,"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:D105">
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
-      <formula>COUNTIF(B10,"")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D10:D105">
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="between">
       <formula>0</formula>
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThanOrEqual">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="6">
+  <dataValidations count="7">
     <dataValidation type="textLength" errorStyle="warning" operator="greaterThan" allowBlank="1" showErrorMessage="1" error="The Extraction ID cannot be left blank." prompt="Enter the Extraction ID" sqref="B10:B105" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
@@ -2786,24 +2782,15 @@
     <dataValidation type="list" errorStyle="warning" operator="greaterThan" allowBlank="1" showErrorMessage="1" error="The Extraction ID cannot be left blank." prompt="Enter the Extraction ID" sqref="C10" xr:uid="{4671ADE5-F535-4830-AEE1-5AAFCDEB7B14}">
       <formula1>"Field,Positive,Negative"</formula1>
     </dataValidation>
+    <dataValidation type="list" errorStyle="warning" operator="greaterThan" allowBlank="1" showErrorMessage="1" error="The Extraction ID cannot be left blank." prompt="Enter the Extraction ID" sqref="C11:C105" xr:uid="{90263FD8-A258-4500-8E21-E385F84EA53B}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.23611111111111099" right="0.23611111111111099" top="0.74791666666666701" bottom="0.74791666666666701" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="43" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" errorStyle="warning" operator="greaterThan" allowBlank="1" showErrorMessage="1" error="The Extraction ID cannot be left blank." prompt="Enter the Extraction ID" xr:uid="{90263FD8-A258-4500-8E21-E385F84EA53B}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C11:C105</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2812,20 +2799,20 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.19921875" customWidth="1"/>
-    <col min="2" max="2" width="13.69921875" customWidth="1"/>
-    <col min="3" max="3" width="10.69921875" customWidth="1"/>
+    <col min="2" max="3" width="13.69921875" customWidth="1"/>
+    <col min="4" max="4" width="30.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>200</v>
       </c>
@@ -2835,8 +2822,11 @@
       <c r="C1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>IF(LEN(Library!B10)=0,"",Library!B10)</f>
         <v/>
@@ -2849,8 +2839,12 @@
         <f>IF(ISBLANK(Library!B10),"",CONCATENATE("barcode",Library!E10))</f>
         <v/>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="str">
+        <f>IF(LEN(Library!D10)=0,"",Library!D10)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>IF(LEN(Library!B11)=0,"",Library!B11)</f>
         <v/>
@@ -2863,8 +2857,12 @@
         <f>IF(ISBLANK(Library!B11),"",CONCATENATE("barcode",Library!E11))</f>
         <v/>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="str">
+        <f>IF(LEN(Library!D11)=0,"",Library!D11)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>IF(LEN(Library!B12)=0,"",Library!B12)</f>
         <v/>
@@ -2877,8 +2875,12 @@
         <f>IF(ISBLANK(Library!B12),"",CONCATENATE("barcode",Library!E12))</f>
         <v/>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="str">
+        <f>IF(LEN(Library!D12)=0,"",Library!D12)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>IF(LEN(Library!B13)=0,"",Library!B13)</f>
         <v/>
@@ -2891,8 +2893,12 @@
         <f>IF(ISBLANK(Library!B13),"",CONCATENATE("barcode",Library!E13))</f>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="str">
+        <f>IF(LEN(Library!D13)=0,"",Library!D13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>IF(LEN(Library!B14)=0,"",Library!B14)</f>
         <v/>
@@ -2905,8 +2911,12 @@
         <f>IF(ISBLANK(Library!B14),"",CONCATENATE("barcode",Library!E14))</f>
         <v/>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="str">
+        <f>IF(LEN(Library!D14)=0,"",Library!D14)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>IF(LEN(Library!B15)=0,"",Library!B15)</f>
         <v/>
@@ -2919,8 +2929,12 @@
         <f>IF(ISBLANK(Library!B15),"",CONCATENATE("barcode",Library!E15))</f>
         <v/>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="str">
+        <f>IF(LEN(Library!D15)=0,"",Library!D15)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>IF(LEN(Library!B16)=0,"",Library!B16)</f>
         <v/>
@@ -2933,8 +2947,12 @@
         <f>IF(ISBLANK(Library!B16),"",CONCATENATE("barcode",Library!E16))</f>
         <v/>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="str">
+        <f>IF(LEN(Library!D16)=0,"",Library!D16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>IF(LEN(Library!B17)=0,"",Library!B17)</f>
         <v/>
@@ -2947,8 +2965,12 @@
         <f>IF(ISBLANK(Library!B17),"",CONCATENATE("barcode",Library!E17))</f>
         <v/>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="str">
+        <f>IF(LEN(Library!D17)=0,"",Library!D17)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>IF(LEN(Library!B18)=0,"",Library!B18)</f>
         <v/>
@@ -2961,8 +2983,12 @@
         <f>IF(ISBLANK(Library!B18),"",CONCATENATE("barcode",Library!E18))</f>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="str">
+        <f>IF(LEN(Library!D18)=0,"",Library!D18)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>IF(LEN(Library!B19)=0,"",Library!B19)</f>
         <v/>
@@ -2975,8 +3001,12 @@
         <f>IF(ISBLANK(Library!B19),"",CONCATENATE("barcode",Library!E19))</f>
         <v/>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="str">
+        <f>IF(LEN(Library!D19)=0,"",Library!D19)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>IF(LEN(Library!B20)=0,"",Library!B20)</f>
         <v/>
@@ -2989,8 +3019,12 @@
         <f>IF(ISBLANK(Library!B20),"",CONCATENATE("barcode",Library!E20))</f>
         <v/>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="str">
+        <f>IF(LEN(Library!D20)=0,"",Library!D20)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>IF(LEN(Library!B21)=0,"",Library!B21)</f>
         <v/>
@@ -3003,8 +3037,12 @@
         <f>IF(ISBLANK(Library!B21),"",CONCATENATE("barcode",Library!E21))</f>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="str">
+        <f>IF(LEN(Library!D21)=0,"",Library!D21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f>IF(LEN(Library!B22)=0,"",Library!B22)</f>
         <v/>
@@ -3017,8 +3055,12 @@
         <f>IF(ISBLANK(Library!B22),"",CONCATENATE("barcode",Library!E22))</f>
         <v/>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="str">
+        <f>IF(LEN(Library!D22)=0,"",Library!D22)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>IF(LEN(Library!B23)=0,"",Library!B23)</f>
         <v/>
@@ -3031,8 +3073,12 @@
         <f>IF(ISBLANK(Library!B23),"",CONCATENATE("barcode",Library!E23))</f>
         <v/>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="str">
+        <f>IF(LEN(Library!D23)=0,"",Library!D23)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>IF(LEN(Library!B24)=0,"",Library!B24)</f>
         <v/>
@@ -3045,8 +3091,12 @@
         <f>IF(ISBLANK(Library!B24),"",CONCATENATE("barcode",Library!E24))</f>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="str">
+        <f>IF(LEN(Library!D24)=0,"",Library!D24)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>IF(LEN(Library!B25)=0,"",Library!B25)</f>
         <v/>
@@ -3059,8 +3109,12 @@
         <f>IF(ISBLANK(Library!B25),"",CONCATENATE("barcode",Library!E25))</f>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="str">
+        <f>IF(LEN(Library!D25)=0,"",Library!D25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>IF(LEN(Library!B26)=0,"",Library!B26)</f>
         <v/>
@@ -3073,8 +3127,12 @@
         <f>IF(ISBLANK(Library!B26),"",CONCATENATE("barcode",Library!E26))</f>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="str">
+        <f>IF(LEN(Library!D26)=0,"",Library!D26)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f>IF(LEN(Library!B27)=0,"",Library!B27)</f>
         <v/>
@@ -3087,8 +3145,12 @@
         <f>IF(ISBLANK(Library!B27),"",CONCATENATE("barcode",Library!E27))</f>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="str">
+        <f>IF(LEN(Library!D27)=0,"",Library!D27)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f>IF(LEN(Library!B28)=0,"",Library!B28)</f>
         <v/>
@@ -3101,8 +3163,12 @@
         <f>IF(ISBLANK(Library!B28),"",CONCATENATE("barcode",Library!E28))</f>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="str">
+        <f>IF(LEN(Library!D28)=0,"",Library!D28)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f>IF(LEN(Library!B29)=0,"",Library!B29)</f>
         <v/>
@@ -3115,8 +3181,12 @@
         <f>IF(ISBLANK(Library!B29),"",CONCATENATE("barcode",Library!E29))</f>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="str">
+        <f>IF(LEN(Library!D29)=0,"",Library!D29)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f>IF(LEN(Library!B30)=0,"",Library!B30)</f>
         <v/>
@@ -3129,8 +3199,12 @@
         <f>IF(ISBLANK(Library!B30),"",CONCATENATE("barcode",Library!E30))</f>
         <v/>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="str">
+        <f>IF(LEN(Library!D30)=0,"",Library!D30)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f>IF(LEN(Library!B31)=0,"",Library!B31)</f>
         <v/>
@@ -3143,8 +3217,12 @@
         <f>IF(ISBLANK(Library!B31),"",CONCATENATE("barcode",Library!E31))</f>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="str">
+        <f>IF(LEN(Library!D31)=0,"",Library!D31)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f>IF(LEN(Library!B32)=0,"",Library!B32)</f>
         <v/>
@@ -3157,8 +3235,12 @@
         <f>IF(ISBLANK(Library!B32),"",CONCATENATE("barcode",Library!E32))</f>
         <v/>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="str">
+        <f>IF(LEN(Library!D32)=0,"",Library!D32)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f>IF(LEN(Library!B33)=0,"",Library!B33)</f>
         <v/>
@@ -3171,8 +3253,12 @@
         <f>IF(ISBLANK(Library!B33),"",CONCATENATE("barcode",Library!E33))</f>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="str">
+        <f>IF(LEN(Library!D33)=0,"",Library!D33)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f>IF(LEN(Library!B34)=0,"",Library!B34)</f>
         <v/>
@@ -3185,8 +3271,12 @@
         <f>IF(ISBLANK(Library!B34),"",CONCATENATE("barcode",Library!E34))</f>
         <v/>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="str">
+        <f>IF(LEN(Library!D34)=0,"",Library!D34)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f>IF(LEN(Library!B35)=0,"",Library!B35)</f>
         <v/>
@@ -3199,8 +3289,12 @@
         <f>IF(ISBLANK(Library!B35),"",CONCATENATE("barcode",Library!E35))</f>
         <v/>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="str">
+        <f>IF(LEN(Library!D35)=0,"",Library!D35)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f>IF(LEN(Library!B36)=0,"",Library!B36)</f>
         <v/>
@@ -3213,8 +3307,12 @@
         <f>IF(ISBLANK(Library!B36),"",CONCATENATE("barcode",Library!E36))</f>
         <v/>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="str">
+        <f>IF(LEN(Library!D36)=0,"",Library!D36)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f>IF(LEN(Library!B37)=0,"",Library!B37)</f>
         <v/>
@@ -3227,8 +3325,12 @@
         <f>IF(ISBLANK(Library!B37),"",CONCATENATE("barcode",Library!E37))</f>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="str">
+        <f>IF(LEN(Library!D37)=0,"",Library!D37)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f>IF(LEN(Library!B38)=0,"",Library!B38)</f>
         <v/>
@@ -3241,8 +3343,12 @@
         <f>IF(ISBLANK(Library!B38),"",CONCATENATE("barcode",Library!E38))</f>
         <v/>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="str">
+        <f>IF(LEN(Library!D38)=0,"",Library!D38)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f>IF(LEN(Library!B39)=0,"",Library!B39)</f>
         <v/>
@@ -3255,8 +3361,12 @@
         <f>IF(ISBLANK(Library!B39),"",CONCATENATE("barcode",Library!E39))</f>
         <v/>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="str">
+        <f>IF(LEN(Library!D39)=0,"",Library!D39)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f>IF(LEN(Library!B40)=0,"",Library!B40)</f>
         <v/>
@@ -3269,8 +3379,12 @@
         <f>IF(ISBLANK(Library!B40),"",CONCATENATE("barcode",Library!E40))</f>
         <v/>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="str">
+        <f>IF(LEN(Library!D40)=0,"",Library!D40)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f>IF(LEN(Library!B41)=0,"",Library!B41)</f>
         <v/>
@@ -3283,8 +3397,12 @@
         <f>IF(ISBLANK(Library!B41),"",CONCATENATE("barcode",Library!E41))</f>
         <v/>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" t="str">
+        <f>IF(LEN(Library!D41)=0,"",Library!D41)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f>IF(LEN(Library!B42)=0,"",Library!B42)</f>
         <v/>
@@ -3297,8 +3415,12 @@
         <f>IF(ISBLANK(Library!B42),"",CONCATENATE("barcode",Library!E42))</f>
         <v/>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" t="str">
+        <f>IF(LEN(Library!D42)=0,"",Library!D42)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f>IF(LEN(Library!B43)=0,"",Library!B43)</f>
         <v/>
@@ -3311,8 +3433,12 @@
         <f>IF(ISBLANK(Library!B43),"",CONCATENATE("barcode",Library!E43))</f>
         <v/>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" t="str">
+        <f>IF(LEN(Library!D43)=0,"",Library!D43)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f>IF(LEN(Library!B44)=0,"",Library!B44)</f>
         <v/>
@@ -3325,8 +3451,12 @@
         <f>IF(ISBLANK(Library!B44),"",CONCATENATE("barcode",Library!E44))</f>
         <v/>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" t="str">
+        <f>IF(LEN(Library!D44)=0,"",Library!D44)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f>IF(LEN(Library!B45)=0,"",Library!B45)</f>
         <v/>
@@ -3339,8 +3469,12 @@
         <f>IF(ISBLANK(Library!B45),"",CONCATENATE("barcode",Library!E45))</f>
         <v/>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" t="str">
+        <f>IF(LEN(Library!D45)=0,"",Library!D45)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f>IF(LEN(Library!B46)=0,"",Library!B46)</f>
         <v/>
@@ -3353,8 +3487,12 @@
         <f>IF(ISBLANK(Library!B46),"",CONCATENATE("barcode",Library!E46))</f>
         <v/>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" t="str">
+        <f>IF(LEN(Library!D46)=0,"",Library!D46)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f>IF(LEN(Library!B47)=0,"",Library!B47)</f>
         <v/>
@@ -3367,8 +3505,12 @@
         <f>IF(ISBLANK(Library!B47),"",CONCATENATE("barcode",Library!E47))</f>
         <v/>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" t="str">
+        <f>IF(LEN(Library!D47)=0,"",Library!D47)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f>IF(LEN(Library!B48)=0,"",Library!B48)</f>
         <v/>
@@ -3381,8 +3523,12 @@
         <f>IF(ISBLANK(Library!B48),"",CONCATENATE("barcode",Library!E48))</f>
         <v/>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" t="str">
+        <f>IF(LEN(Library!D48)=0,"",Library!D48)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f>IF(LEN(Library!B49)=0,"",Library!B49)</f>
         <v/>
@@ -3395,8 +3541,12 @@
         <f>IF(ISBLANK(Library!B49),"",CONCATENATE("barcode",Library!E49))</f>
         <v/>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" t="str">
+        <f>IF(LEN(Library!D49)=0,"",Library!D49)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
         <f>IF(LEN(Library!B50)=0,"",Library!B50)</f>
         <v/>
@@ -3409,8 +3559,12 @@
         <f>IF(ISBLANK(Library!B50),"",CONCATENATE("barcode",Library!E50))</f>
         <v/>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" t="str">
+        <f>IF(LEN(Library!D50)=0,"",Library!D50)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
         <f>IF(LEN(Library!B51)=0,"",Library!B51)</f>
         <v/>
@@ -3423,8 +3577,12 @@
         <f>IF(ISBLANK(Library!B51),"",CONCATENATE("barcode",Library!E51))</f>
         <v/>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" t="str">
+        <f>IF(LEN(Library!D51)=0,"",Library!D51)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
         <f>IF(LEN(Library!B52)=0,"",Library!B52)</f>
         <v/>
@@ -3437,8 +3595,12 @@
         <f>IF(ISBLANK(Library!B52),"",CONCATENATE("barcode",Library!E52))</f>
         <v/>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44" t="str">
+        <f>IF(LEN(Library!D52)=0,"",Library!D52)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
         <f>IF(LEN(Library!B53)=0,"",Library!B53)</f>
         <v/>
@@ -3451,8 +3613,12 @@
         <f>IF(ISBLANK(Library!B53),"",CONCATENATE("barcode",Library!E53))</f>
         <v/>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45" t="str">
+        <f>IF(LEN(Library!D53)=0,"",Library!D53)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
         <f>IF(LEN(Library!B54)=0,"",Library!B54)</f>
         <v/>
@@ -3465,8 +3631,12 @@
         <f>IF(ISBLANK(Library!B54),"",CONCATENATE("barcode",Library!E54))</f>
         <v/>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46" t="str">
+        <f>IF(LEN(Library!D54)=0,"",Library!D54)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f>IF(LEN(Library!B55)=0,"",Library!B55)</f>
         <v/>
@@ -3479,8 +3649,12 @@
         <f>IF(ISBLANK(Library!B55),"",CONCATENATE("barcode",Library!E55))</f>
         <v/>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47" t="str">
+        <f>IF(LEN(Library!D55)=0,"",Library!D55)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f>IF(LEN(Library!B56)=0,"",Library!B56)</f>
         <v/>
@@ -3493,8 +3667,12 @@
         <f>IF(ISBLANK(Library!B56),"",CONCATENATE("barcode",Library!E56))</f>
         <v/>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" t="str">
+        <f>IF(LEN(Library!D56)=0,"",Library!D56)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f>IF(LEN(Library!B57)=0,"",Library!B57)</f>
         <v/>
@@ -3507,8 +3685,12 @@
         <f>IF(ISBLANK(Library!B57),"",CONCATENATE("barcode",Library!E57))</f>
         <v/>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" t="str">
+        <f>IF(LEN(Library!D57)=0,"",Library!D57)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f>IF(LEN(Library!B58)=0,"",Library!B58)</f>
         <v/>
@@ -3521,8 +3703,12 @@
         <f>IF(ISBLANK(Library!B58),"",CONCATENATE("barcode",Library!E58))</f>
         <v/>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50" t="str">
+        <f>IF(LEN(Library!D58)=0,"",Library!D58)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f>IF(LEN(Library!B59)=0,"",Library!B59)</f>
         <v/>
@@ -3535,8 +3721,12 @@
         <f>IF(ISBLANK(Library!B59),"",CONCATENATE("barcode",Library!E59))</f>
         <v/>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51" t="str">
+        <f>IF(LEN(Library!D59)=0,"",Library!D59)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
         <f>IF(LEN(Library!B60)=0,"",Library!B60)</f>
         <v/>
@@ -3549,8 +3739,12 @@
         <f>IF(ISBLANK(Library!B60),"",CONCATENATE("barcode",Library!E60))</f>
         <v/>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52" t="str">
+        <f>IF(LEN(Library!D60)=0,"",Library!D60)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
         <f>IF(LEN(Library!B61)=0,"",Library!B61)</f>
         <v/>
@@ -3563,8 +3757,12 @@
         <f>IF(ISBLANK(Library!B61),"",CONCATENATE("barcode",Library!E61))</f>
         <v/>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53" t="str">
+        <f>IF(LEN(Library!D61)=0,"",Library!D61)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
         <f>IF(LEN(Library!B62)=0,"",Library!B62)</f>
         <v/>
@@ -3577,8 +3775,12 @@
         <f>IF(ISBLANK(Library!B62),"",CONCATENATE("barcode",Library!E62))</f>
         <v/>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54" t="str">
+        <f>IF(LEN(Library!D62)=0,"",Library!D62)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
         <f>IF(LEN(Library!B63)=0,"",Library!B63)</f>
         <v/>
@@ -3591,8 +3793,12 @@
         <f>IF(ISBLANK(Library!B63),"",CONCATENATE("barcode",Library!E63))</f>
         <v/>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55" t="str">
+        <f>IF(LEN(Library!D63)=0,"",Library!D63)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
         <f>IF(LEN(Library!B64)=0,"",Library!B64)</f>
         <v/>
@@ -3605,8 +3811,12 @@
         <f>IF(ISBLANK(Library!B64),"",CONCATENATE("barcode",Library!E64))</f>
         <v/>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56" t="str">
+        <f>IF(LEN(Library!D64)=0,"",Library!D64)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
         <f>IF(LEN(Library!B65)=0,"",Library!B65)</f>
         <v/>
@@ -3619,8 +3829,12 @@
         <f>IF(ISBLANK(Library!B65),"",CONCATENATE("barcode",Library!E65))</f>
         <v/>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57" t="str">
+        <f>IF(LEN(Library!D65)=0,"",Library!D65)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
         <f>IF(LEN(Library!B66)=0,"",Library!B66)</f>
         <v/>
@@ -3633,8 +3847,12 @@
         <f>IF(ISBLANK(Library!B66),"",CONCATENATE("barcode",Library!E66))</f>
         <v/>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58" t="str">
+        <f>IF(LEN(Library!D66)=0,"",Library!D66)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
         <f>IF(LEN(Library!B67)=0,"",Library!B67)</f>
         <v/>
@@ -3647,8 +3865,12 @@
         <f>IF(ISBLANK(Library!B67),"",CONCATENATE("barcode",Library!E67))</f>
         <v/>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59" t="str">
+        <f>IF(LEN(Library!D67)=0,"",Library!D67)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
         <f>IF(LEN(Library!B68)=0,"",Library!B68)</f>
         <v/>
@@ -3661,8 +3883,12 @@
         <f>IF(ISBLANK(Library!B68),"",CONCATENATE("barcode",Library!E68))</f>
         <v/>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60" t="str">
+        <f>IF(LEN(Library!D68)=0,"",Library!D68)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
         <f>IF(LEN(Library!B69)=0,"",Library!B69)</f>
         <v/>
@@ -3675,8 +3901,12 @@
         <f>IF(ISBLANK(Library!B69),"",CONCATENATE("barcode",Library!E69))</f>
         <v/>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61" t="str">
+        <f>IF(LEN(Library!D69)=0,"",Library!D69)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
         <f>IF(LEN(Library!B70)=0,"",Library!B70)</f>
         <v/>
@@ -3689,8 +3919,12 @@
         <f>IF(ISBLANK(Library!B70),"",CONCATENATE("barcode",Library!E70))</f>
         <v/>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62" t="str">
+        <f>IF(LEN(Library!D70)=0,"",Library!D70)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
         <f>IF(LEN(Library!B71)=0,"",Library!B71)</f>
         <v/>
@@ -3703,8 +3937,12 @@
         <f>IF(ISBLANK(Library!B71),"",CONCATENATE("barcode",Library!E71))</f>
         <v/>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D63" t="str">
+        <f>IF(LEN(Library!D71)=0,"",Library!D71)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
         <f>IF(LEN(Library!B72)=0,"",Library!B72)</f>
         <v/>
@@ -3717,8 +3955,12 @@
         <f>IF(ISBLANK(Library!B72),"",CONCATENATE("barcode",Library!E72))</f>
         <v/>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64" t="str">
+        <f>IF(LEN(Library!D72)=0,"",Library!D72)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
         <f>IF(LEN(Library!B73)=0,"",Library!B73)</f>
         <v/>
@@ -3731,8 +3973,12 @@
         <f>IF(ISBLANK(Library!B73),"",CONCATENATE("barcode",Library!E73))</f>
         <v/>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65" t="str">
+        <f>IF(LEN(Library!D73)=0,"",Library!D73)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
         <f>IF(LEN(Library!B74)=0,"",Library!B74)</f>
         <v/>
@@ -3745,8 +3991,12 @@
         <f>IF(ISBLANK(Library!B74),"",CONCATENATE("barcode",Library!E74))</f>
         <v/>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D66" t="str">
+        <f>IF(LEN(Library!D74)=0,"",Library!D74)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
         <f>IF(LEN(Library!B75)=0,"",Library!B75)</f>
         <v/>
@@ -3759,8 +4009,12 @@
         <f>IF(ISBLANK(Library!B75),"",CONCATENATE("barcode",Library!E75))</f>
         <v/>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D67" t="str">
+        <f>IF(LEN(Library!D75)=0,"",Library!D75)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
         <f>IF(LEN(Library!B76)=0,"",Library!B76)</f>
         <v/>
@@ -3773,8 +4027,12 @@
         <f>IF(ISBLANK(Library!B76),"",CONCATENATE("barcode",Library!E76))</f>
         <v/>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D68" t="str">
+        <f>IF(LEN(Library!D76)=0,"",Library!D76)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="str">
         <f>IF(LEN(Library!B77)=0,"",Library!B77)</f>
         <v/>
@@ -3787,8 +4045,12 @@
         <f>IF(ISBLANK(Library!B77),"",CONCATENATE("barcode",Library!E77))</f>
         <v/>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D69" t="str">
+        <f>IF(LEN(Library!D77)=0,"",Library!D77)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="str">
         <f>IF(LEN(Library!B78)=0,"",Library!B78)</f>
         <v/>
@@ -3801,8 +4063,12 @@
         <f>IF(ISBLANK(Library!B78),"",CONCATENATE("barcode",Library!E78))</f>
         <v/>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D70" t="str">
+        <f>IF(LEN(Library!D78)=0,"",Library!D78)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="str">
         <f>IF(LEN(Library!B79)=0,"",Library!B79)</f>
         <v/>
@@ -3815,8 +4081,12 @@
         <f>IF(ISBLANK(Library!B79),"",CONCATENATE("barcode",Library!E79))</f>
         <v/>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D71" t="str">
+        <f>IF(LEN(Library!D79)=0,"",Library!D79)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="str">
         <f>IF(LEN(Library!B80)=0,"",Library!B80)</f>
         <v/>
@@ -3829,8 +4099,12 @@
         <f>IF(ISBLANK(Library!B80),"",CONCATENATE("barcode",Library!E80))</f>
         <v/>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D72" t="str">
+        <f>IF(LEN(Library!D80)=0,"",Library!D80)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="str">
         <f>IF(LEN(Library!B81)=0,"",Library!B81)</f>
         <v/>
@@ -3843,8 +4117,12 @@
         <f>IF(ISBLANK(Library!B81),"",CONCATENATE("barcode",Library!E81))</f>
         <v/>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D73" t="str">
+        <f>IF(LEN(Library!D81)=0,"",Library!D81)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="str">
         <f>IF(LEN(Library!B82)=0,"",Library!B82)</f>
         <v/>
@@ -3857,8 +4135,12 @@
         <f>IF(ISBLANK(Library!B82),"",CONCATENATE("barcode",Library!E82))</f>
         <v/>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D74" t="str">
+        <f>IF(LEN(Library!D82)=0,"",Library!D82)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="str">
         <f>IF(LEN(Library!B83)=0,"",Library!B83)</f>
         <v/>
@@ -3871,8 +4153,12 @@
         <f>IF(ISBLANK(Library!B83),"",CONCATENATE("barcode",Library!E83))</f>
         <v/>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D75" t="str">
+        <f>IF(LEN(Library!D83)=0,"",Library!D83)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="str">
         <f>IF(LEN(Library!B84)=0,"",Library!B84)</f>
         <v/>
@@ -3885,8 +4171,12 @@
         <f>IF(ISBLANK(Library!B84),"",CONCATENATE("barcode",Library!E84))</f>
         <v/>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D76" t="str">
+        <f>IF(LEN(Library!D84)=0,"",Library!D84)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="str">
         <f>IF(LEN(Library!B85)=0,"",Library!B85)</f>
         <v/>
@@ -3899,8 +4189,12 @@
         <f>IF(ISBLANK(Library!B85),"",CONCATENATE("barcode",Library!E85))</f>
         <v/>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D77" t="str">
+        <f>IF(LEN(Library!D85)=0,"",Library!D85)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="str">
         <f>IF(LEN(Library!B86)=0,"",Library!B86)</f>
         <v/>
@@ -3913,8 +4207,12 @@
         <f>IF(ISBLANK(Library!B86),"",CONCATENATE("barcode",Library!E86))</f>
         <v/>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D78" t="str">
+        <f>IF(LEN(Library!D86)=0,"",Library!D86)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="str">
         <f>IF(LEN(Library!B87)=0,"",Library!B87)</f>
         <v/>
@@ -3927,8 +4225,12 @@
         <f>IF(ISBLANK(Library!B87),"",CONCATENATE("barcode",Library!E87))</f>
         <v/>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D79" t="str">
+        <f>IF(LEN(Library!D87)=0,"",Library!D87)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="str">
         <f>IF(LEN(Library!B88)=0,"",Library!B88)</f>
         <v/>
@@ -3941,8 +4243,12 @@
         <f>IF(ISBLANK(Library!B88),"",CONCATENATE("barcode",Library!E88))</f>
         <v/>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D80" t="str">
+        <f>IF(LEN(Library!D88)=0,"",Library!D88)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="str">
         <f>IF(LEN(Library!B89)=0,"",Library!B89)</f>
         <v/>
@@ -3955,8 +4261,12 @@
         <f>IF(ISBLANK(Library!B89),"",CONCATENATE("barcode",Library!E89))</f>
         <v/>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D81" t="str">
+        <f>IF(LEN(Library!D89)=0,"",Library!D89)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="str">
         <f>IF(LEN(Library!B90)=0,"",Library!B90)</f>
         <v/>
@@ -3969,8 +4279,12 @@
         <f>IF(ISBLANK(Library!B90),"",CONCATENATE("barcode",Library!E90))</f>
         <v/>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D82" t="str">
+        <f>IF(LEN(Library!D90)=0,"",Library!D90)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="str">
         <f>IF(LEN(Library!B91)=0,"",Library!B91)</f>
         <v/>
@@ -3983,8 +4297,12 @@
         <f>IF(ISBLANK(Library!B91),"",CONCATENATE("barcode",Library!E91))</f>
         <v/>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D83" t="str">
+        <f>IF(LEN(Library!D91)=0,"",Library!D91)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="str">
         <f>IF(LEN(Library!B92)=0,"",Library!B92)</f>
         <v/>
@@ -3997,8 +4315,12 @@
         <f>IF(ISBLANK(Library!B92),"",CONCATENATE("barcode",Library!E92))</f>
         <v/>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D84" t="str">
+        <f>IF(LEN(Library!D92)=0,"",Library!D92)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="str">
         <f>IF(LEN(Library!B93)=0,"",Library!B93)</f>
         <v/>
@@ -4011,8 +4333,12 @@
         <f>IF(ISBLANK(Library!B93),"",CONCATENATE("barcode",Library!E93))</f>
         <v/>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D85" t="str">
+        <f>IF(LEN(Library!D93)=0,"",Library!D93)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="str">
         <f>IF(LEN(Library!B94)=0,"",Library!B94)</f>
         <v/>
@@ -4025,8 +4351,12 @@
         <f>IF(ISBLANK(Library!B94),"",CONCATENATE("barcode",Library!E94))</f>
         <v/>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D86" t="str">
+        <f>IF(LEN(Library!D94)=0,"",Library!D94)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="str">
         <f>IF(LEN(Library!B95)=0,"",Library!B95)</f>
         <v/>
@@ -4039,8 +4369,12 @@
         <f>IF(ISBLANK(Library!B95),"",CONCATENATE("barcode",Library!E95))</f>
         <v/>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D87" t="str">
+        <f>IF(LEN(Library!D95)=0,"",Library!D95)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="str">
         <f>IF(LEN(Library!B96)=0,"",Library!B96)</f>
         <v/>
@@ -4053,8 +4387,12 @@
         <f>IF(ISBLANK(Library!B96),"",CONCATENATE("barcode",Library!E96))</f>
         <v/>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D88" t="str">
+        <f>IF(LEN(Library!D96)=0,"",Library!D96)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="str">
         <f>IF(LEN(Library!B97)=0,"",Library!B97)</f>
         <v/>
@@ -4067,8 +4405,12 @@
         <f>IF(ISBLANK(Library!B97),"",CONCATENATE("barcode",Library!E97))</f>
         <v/>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D89" t="str">
+        <f>IF(LEN(Library!D97)=0,"",Library!D97)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="str">
         <f>IF(LEN(Library!B98)=0,"",Library!B98)</f>
         <v/>
@@ -4081,8 +4423,12 @@
         <f>IF(ISBLANK(Library!B98),"",CONCATENATE("barcode",Library!E98))</f>
         <v/>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D90" t="str">
+        <f>IF(LEN(Library!D98)=0,"",Library!D98)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="str">
         <f>IF(LEN(Library!B99)=0,"",Library!B99)</f>
         <v/>
@@ -4095,8 +4441,12 @@
         <f>IF(ISBLANK(Library!B99),"",CONCATENATE("barcode",Library!E99))</f>
         <v/>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D91" t="str">
+        <f>IF(LEN(Library!D99)=0,"",Library!D99)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="str">
         <f>IF(LEN(Library!B100)=0,"",Library!B100)</f>
         <v/>
@@ -4109,8 +4459,12 @@
         <f>IF(ISBLANK(Library!B100),"",CONCATENATE("barcode",Library!E100))</f>
         <v/>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D92" t="str">
+        <f>IF(LEN(Library!D100)=0,"",Library!D100)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="str">
         <f>IF(LEN(Library!B101)=0,"",Library!B101)</f>
         <v/>
@@ -4123,8 +4477,12 @@
         <f>IF(ISBLANK(Library!B101),"",CONCATENATE("barcode",Library!E101))</f>
         <v/>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D93" t="str">
+        <f>IF(LEN(Library!D101)=0,"",Library!D101)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="str">
         <f>IF(LEN(Library!B102)=0,"",Library!B102)</f>
         <v/>
@@ -4137,8 +4495,12 @@
         <f>IF(ISBLANK(Library!B102),"",CONCATENATE("barcode",Library!E102))</f>
         <v/>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D94" t="str">
+        <f>IF(LEN(Library!D102)=0,"",Library!D102)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="str">
         <f>IF(LEN(Library!B103)=0,"",Library!B103)</f>
         <v/>
@@ -4151,8 +4513,12 @@
         <f>IF(ISBLANK(Library!B103),"",CONCATENATE("barcode",Library!E103))</f>
         <v/>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D95" t="str">
+        <f>IF(LEN(Library!D103)=0,"",Library!D103)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="str">
         <f>IF(LEN(Library!B104)=0,"",Library!B104)</f>
         <v/>
@@ -4165,8 +4531,12 @@
         <f>IF(ISBLANK(Library!B104),"",CONCATENATE("barcode",Library!E104))</f>
         <v/>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D96" t="str">
+        <f>IF(LEN(Library!D104)=0,"",Library!D104)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="str">
         <f>IF(LEN(Library!B105)=0,"",Library!B105)</f>
         <v/>
@@ -4179,9 +4549,13 @@
         <f>IF(ISBLANK(Library!B105),"",CONCATENATE("barcode",Library!E105))</f>
         <v/>
       </c>
+      <c r="D97" t="str">
+        <f>IF(LEN(Library!D105)=0,"",Library!D105)</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="3xPQ0b/tzn2kRstiisI5HHKRKYVCEvOGymGQwNY2weE/jCwbruWXpkygkZK3e21pFAqn9yoB182oDFvW5Xo9ow==" saltValue="VKYPjxAFkfQaTkoj0oFaAg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">

--- a/experiment_templates/NOMADS_Library_Worksheet.xlsx
+++ b/experiment_templates/NOMADS_Library_Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\git\nomadic\experiment_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56D7ED4-C876-46CF-A5DB-ECD79C30661D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438D6BD7-4F14-47FE-877F-AAE5AECC640C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="27288" windowHeight="17532" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,9 +870,61 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -881,67 +933,21 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -952,53 +958,7 @@
     <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Normal 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1031,42 +991,33 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
-          <color indexed="64"/>
+          <color auto="1"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
@@ -1077,14 +1028,36 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
       <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -1108,12 +1081,6 @@
         </horizontal>
       </border>
       <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1145,13 +1112,10 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1238,11 +1202,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tbl_SeqLib" displayName="tbl_SeqLib" ref="A9:E105" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A9:E105" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Well" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sample ID" dataDxfId="11"/>
-    <tableColumn id="26" xr3:uid="{CDAB9BF6-0E65-46A9-85EA-6751A98F15D6}" name="Sample Type" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="PCR [DNA] (ng / µl)" dataDxfId="0"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Barcode#" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Well" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sample ID" dataDxfId="10"/>
+    <tableColumn id="26" xr3:uid="{CDAB9BF6-0E65-46A9-85EA-6751A98F15D6}" name="Sample Type" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="PCR [DNA] (ng / µl)" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Barcode#" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1253,13 +1217,13 @@
   <autoFilter ref="A1:D97" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="sample_id"/>
-    <tableColumn id="9" xr3:uid="{98E62512-61AC-41C9-8930-37E9E6964CA3}" name="sample_type" dataDxfId="17">
+    <tableColumn id="9" xr3:uid="{98E62512-61AC-41C9-8930-37E9E6964CA3}" name="sample_type" dataDxfId="9">
       <calculatedColumnFormula>IF(LEN(Library!C10)=0,"",Library!C10)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="barcode" dataDxfId="16">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="barcode" dataDxfId="8">
       <calculatedColumnFormula>IF(ISBLANK(Library!B10),"",CONCATENATE("barcode",Library!E10))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{1FDA51E1-A0B8-4EA2-9C5A-4746ACED2260}" name="post_pcr_dna_conc_ngul" dataDxfId="15">
+    <tableColumn id="2" xr3:uid="{1FDA51E1-A0B8-4EA2-9C5A-4746ACED2260}" name="post_pcr_dna_conc_ngul" dataDxfId="7">
       <calculatedColumnFormula>IF(LEN(Library!D10)=0,"",Library!D10)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1447,1336 +1411,1304 @@
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J115"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.296875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="30.3984375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="24.3984375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="28.5" style="15" customWidth="1"/>
-    <col min="5" max="5" width="24" style="15" customWidth="1"/>
-    <col min="6" max="7" width="11.8984375" style="15" customWidth="1"/>
-    <col min="8" max="8" width="11" style="15"/>
-    <col min="9" max="9" width="11" style="15" customWidth="1"/>
-    <col min="10" max="10" width="17.3984375" style="15" customWidth="1"/>
+    <col min="1" max="1" width="13.296875" customWidth="1"/>
+    <col min="2" max="2" width="30.3984375" customWidth="1"/>
+    <col min="3" max="3" width="24.3984375" customWidth="1"/>
+    <col min="4" max="4" width="28.5" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="17" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="15" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" t="s">
         <v>206</v>
       </c>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="G4" s="19"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="20" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="18"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="17" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="12" t="str">
+      <c r="B7" s="27"/>
+      <c r="C7" s="29" t="str">
         <f>IF(OR(ISBLANK(C2),ISBLANK(C3),ISBLANK(C4), ISBLANK(C5), ISBLANK(C6)),"",CONCATENATE(C2,"_",C3,C5,"_",C4,"_Batch",C6))</f>
         <v/>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="25" t="s">
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="D10" s="30"/>
       <c r="E10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="29"/>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
+    </row>
+    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
+      <c r="F11"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="29"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="31"/>
       <c r="E14" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31" t="s">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="20" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="6"/>
+      <c r="D17" s="32"/>
       <c r="E17" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="30"/>
       <c r="E18" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="19" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="19" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="31"/>
       <c r="E22" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="19" t="s">
         <v>34</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="19" t="s">
         <v>36</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="D24" s="31"/>
       <c r="E24" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="21" t="s">
         <v>38</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="D25" s="33"/>
       <c r="E25" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="18" t="s">
         <v>40</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="D26" s="30"/>
       <c r="E26" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="19" t="s">
         <v>42</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="19" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="D28" s="31"/>
       <c r="E28" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="19" t="s">
         <v>46</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="D29" s="31"/>
       <c r="E29" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="19" t="s">
         <v>48</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="D30" s="31"/>
       <c r="E30" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="19" t="s">
         <v>50</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="D31" s="31"/>
       <c r="E31" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="19" t="s">
         <v>52</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="D32" s="31"/>
       <c r="E32" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="20" t="s">
         <v>54</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
+      <c r="D33" s="32"/>
       <c r="E33" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="18" t="s">
         <v>56</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
+      <c r="D34" s="30"/>
       <c r="E34" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="19" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="D35" s="31"/>
       <c r="E35" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="19" t="s">
         <v>60</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="D36" s="31"/>
       <c r="E36" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="19" t="s">
         <v>62</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+      <c r="D37" s="31"/>
       <c r="E37" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="19" t="s">
         <v>64</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+      <c r="D38" s="31"/>
       <c r="E38" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="19" t="s">
         <v>66</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+      <c r="D39" s="31"/>
       <c r="E39" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="19" t="s">
         <v>68</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+      <c r="D40" s="31"/>
       <c r="E40" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="32" t="s">
+      <c r="A41" s="20" t="s">
         <v>70</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
+      <c r="D41" s="32"/>
       <c r="E41" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="18" t="s">
         <v>72</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
+      <c r="D42" s="30"/>
       <c r="E42" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="19" t="s">
         <v>74</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="D43" s="31"/>
       <c r="E43" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="19" t="s">
         <v>76</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+      <c r="D44" s="31"/>
       <c r="E44" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="19" t="s">
         <v>78</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+      <c r="D45" s="31"/>
       <c r="E45" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="19" t="s">
         <v>80</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+      <c r="D46" s="31"/>
       <c r="E46" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="19" t="s">
         <v>82</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
+      <c r="D47" s="31"/>
       <c r="E47" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="19" t="s">
         <v>84</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+      <c r="D48" s="31"/>
       <c r="E48" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="32" t="s">
+      <c r="A49" s="20" t="s">
         <v>86</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
+      <c r="D49" s="32"/>
       <c r="E49" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="30" t="s">
+      <c r="A50" s="18" t="s">
         <v>88</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
+      <c r="D50" s="30"/>
       <c r="E50" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="31" t="s">
+      <c r="A51" s="19" t="s">
         <v>90</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
+      <c r="D51" s="31"/>
       <c r="E51" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="19" t="s">
         <v>92</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
+      <c r="D52" s="31"/>
       <c r="E52" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="31" t="s">
+      <c r="A53" s="19" t="s">
         <v>94</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
+      <c r="D53" s="31"/>
       <c r="E53" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="19" t="s">
         <v>96</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
+      <c r="D54" s="31"/>
       <c r="E54" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="31" t="s">
+      <c r="A55" s="19" t="s">
         <v>98</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
+      <c r="D55" s="31"/>
       <c r="E55" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="31" t="s">
+      <c r="A56" s="19" t="s">
         <v>100</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
+      <c r="D56" s="31"/>
       <c r="E56" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="32" t="s">
+      <c r="A57" s="20" t="s">
         <v>102</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
+      <c r="D57" s="32"/>
       <c r="E57" s="7" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="30" t="s">
+      <c r="A58" s="18" t="s">
         <v>104</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
+      <c r="D58" s="30"/>
       <c r="E58" s="5" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="31" t="s">
+      <c r="A59" s="19" t="s">
         <v>106</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
+      <c r="D59" s="31"/>
       <c r="E59" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="31" t="s">
+      <c r="A60" s="19" t="s">
         <v>108</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
+      <c r="D60" s="31"/>
       <c r="E60" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="31" t="s">
+      <c r="A61" s="19" t="s">
         <v>110</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
+      <c r="D61" s="31"/>
       <c r="E61" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="19" t="s">
         <v>112</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
+      <c r="D62" s="31"/>
       <c r="E62" s="3" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="31" t="s">
+      <c r="A63" s="19" t="s">
         <v>114</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
+      <c r="D63" s="31"/>
       <c r="E63" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="31" t="s">
+      <c r="A64" s="19" t="s">
         <v>116</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
+      <c r="D64" s="31"/>
       <c r="E64" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="32" t="s">
+      <c r="A65" s="20" t="s">
         <v>118</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
+      <c r="D65" s="32"/>
       <c r="E65" s="7" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="30" t="s">
+      <c r="A66" s="18" t="s">
         <v>120</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
+      <c r="D66" s="30"/>
       <c r="E66" s="5" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="31" t="s">
+      <c r="A67" s="19" t="s">
         <v>122</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
+      <c r="D67" s="31"/>
       <c r="E67" s="3" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="31" t="s">
+      <c r="A68" s="19" t="s">
         <v>124</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
+      <c r="D68" s="31"/>
       <c r="E68" s="3" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="31" t="s">
+      <c r="A69" s="19" t="s">
         <v>126</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
+      <c r="D69" s="31"/>
       <c r="E69" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="31" t="s">
+      <c r="A70" s="19" t="s">
         <v>128</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
+      <c r="D70" s="31"/>
       <c r="E70" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="31" t="s">
+      <c r="A71" s="19" t="s">
         <v>130</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
+      <c r="D71" s="31"/>
       <c r="E71" s="3" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="31" t="s">
+      <c r="A72" s="19" t="s">
         <v>132</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
+      <c r="D72" s="31"/>
       <c r="E72" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="32" t="s">
+      <c r="A73" s="20" t="s">
         <v>134</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
+      <c r="D73" s="32"/>
       <c r="E73" s="7" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="30" t="s">
+      <c r="A74" s="18" t="s">
         <v>136</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
+      <c r="D74" s="30"/>
       <c r="E74" s="5" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="31" t="s">
+      <c r="A75" s="19" t="s">
         <v>138</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
+      <c r="D75" s="31"/>
       <c r="E75" s="3" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="31" t="s">
+      <c r="A76" s="19" t="s">
         <v>140</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
+      <c r="D76" s="31"/>
       <c r="E76" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="31" t="s">
+      <c r="A77" s="19" t="s">
         <v>142</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
+      <c r="D77" s="31"/>
       <c r="E77" s="3" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="31" t="s">
+      <c r="A78" s="19" t="s">
         <v>144</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
+      <c r="D78" s="31"/>
       <c r="E78" s="3" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="31" t="s">
+      <c r="A79" s="19" t="s">
         <v>146</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
+      <c r="D79" s="31"/>
       <c r="E79" s="3" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="31" t="s">
+      <c r="A80" s="19" t="s">
         <v>148</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
+      <c r="D80" s="31"/>
       <c r="E80" s="3" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="32" t="s">
+      <c r="A81" s="20" t="s">
         <v>150</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
+      <c r="D81" s="32"/>
       <c r="E81" s="7" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="30" t="s">
+      <c r="A82" s="18" t="s">
         <v>152</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
+      <c r="D82" s="30"/>
       <c r="E82" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="31" t="s">
+      <c r="A83" s="19" t="s">
         <v>154</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
+      <c r="D83" s="31"/>
       <c r="E83" s="3" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="31" t="s">
+      <c r="A84" s="19" t="s">
         <v>156</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
+      <c r="D84" s="31"/>
       <c r="E84" s="3" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="31" t="s">
+      <c r="A85" s="19" t="s">
         <v>158</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
+      <c r="D85" s="31"/>
       <c r="E85" s="3" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="31" t="s">
+      <c r="A86" s="19" t="s">
         <v>160</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
+      <c r="D86" s="31"/>
       <c r="E86" s="3" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="31" t="s">
+      <c r="A87" s="19" t="s">
         <v>162</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
+      <c r="D87" s="31"/>
       <c r="E87" s="3" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="31" t="s">
+      <c r="A88" s="19" t="s">
         <v>164</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
+      <c r="D88" s="31"/>
       <c r="E88" s="3" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="32" t="s">
+      <c r="A89" s="20" t="s">
         <v>166</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
+      <c r="D89" s="32"/>
       <c r="E89" s="7" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="30" t="s">
+      <c r="A90" s="18" t="s">
         <v>168</v>
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
+      <c r="D90" s="30"/>
       <c r="E90" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="31" t="s">
+      <c r="A91" s="19" t="s">
         <v>170</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
+      <c r="D91" s="31"/>
       <c r="E91" s="3" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="31" t="s">
+      <c r="A92" s="19" t="s">
         <v>172</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
+      <c r="D92" s="31"/>
       <c r="E92" s="3" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="31" t="s">
+      <c r="A93" s="19" t="s">
         <v>174</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
+      <c r="D93" s="31"/>
       <c r="E93" s="3" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="31" t="s">
+      <c r="A94" s="19" t="s">
         <v>176</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
+      <c r="D94" s="31"/>
       <c r="E94" s="3" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="31" t="s">
+      <c r="A95" s="19" t="s">
         <v>178</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
+      <c r="D95" s="31"/>
       <c r="E95" s="3" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="31" t="s">
+      <c r="A96" s="19" t="s">
         <v>180</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
+      <c r="D96" s="31"/>
       <c r="E96" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="32" t="s">
+    <row r="97" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="20" t="s">
         <v>182</v>
       </c>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
+      <c r="D97" s="32"/>
       <c r="E97" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="30" t="s">
+    <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="18" t="s">
         <v>184</v>
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
+      <c r="D98" s="30"/>
       <c r="E98" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="31" t="s">
+    <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="19" t="s">
         <v>186</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
+      <c r="D99" s="31"/>
       <c r="E99" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="31" t="s">
+    <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="19" t="s">
         <v>188</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
+      <c r="D100" s="31"/>
       <c r="E100" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="31" t="s">
+    <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="19" t="s">
         <v>190</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
+      <c r="D101" s="31"/>
       <c r="E101" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="31" t="s">
+    <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="19" t="s">
         <v>192</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
+      <c r="D102" s="31"/>
       <c r="E102" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="31" t="s">
+    <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="19" t="s">
         <v>194</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
+      <c r="D103" s="31"/>
       <c r="E103" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="31" t="s">
+    <row r="104" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="19" t="s">
         <v>196</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
+      <c r="D104" s="31"/>
       <c r="E104" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="32" t="s">
+    <row r="105" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="20" t="s">
         <v>198</v>
       </c>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
+      <c r="D105" s="32"/>
       <c r="E105" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="24"/>
-      <c r="B106" s="24"/>
-      <c r="C106" s="24"/>
-      <c r="D106" s="24"/>
-      <c r="E106" s="24"/>
-      <c r="F106" s="24"/>
-      <c r="G106" s="24"/>
-    </row>
-    <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="24"/>
-      <c r="B107" s="24"/>
-      <c r="C107" s="24"/>
-      <c r="D107" s="24"/>
-      <c r="E107" s="24"/>
-      <c r="F107" s="24"/>
-      <c r="G107" s="24"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" s="24"/>
-      <c r="B108" s="24"/>
-      <c r="C108" s="24"/>
-      <c r="D108" s="24"/>
-      <c r="E108" s="24"/>
-      <c r="F108" s="24"/>
-      <c r="G108" s="24"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" s="24"/>
-      <c r="B109" s="24"/>
-      <c r="C109" s="24"/>
-      <c r="D109" s="24"/>
-      <c r="E109" s="24"/>
-      <c r="F109" s="24"/>
-      <c r="G109" s="24"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" s="24"/>
-      <c r="B110" s="24"/>
-      <c r="C110" s="24"/>
-      <c r="D110" s="24"/>
-      <c r="E110" s="24"/>
-      <c r="F110" s="24"/>
-      <c r="G110" s="24"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" s="24"/>
-      <c r="B111" s="24"/>
-      <c r="C111" s="24"/>
-      <c r="D111" s="24"/>
-      <c r="E111" s="24"/>
-      <c r="F111" s="24"/>
-      <c r="G111" s="24"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" s="24"/>
-      <c r="B112" s="24"/>
-      <c r="C112" s="24"/>
-      <c r="D112" s="24"/>
-      <c r="E112" s="24"/>
-      <c r="F112" s="24"/>
-      <c r="G112" s="24"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="24"/>
-      <c r="B113" s="24"/>
-      <c r="C113" s="24"/>
-      <c r="D113" s="24"/>
-      <c r="E113" s="24"/>
-      <c r="F113" s="24"/>
-      <c r="G113" s="24"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A114" s="24"/>
-      <c r="B114" s="24"/>
-      <c r="C114" s="24"/>
-      <c r="D114" s="24"/>
-      <c r="E114" s="24"/>
-      <c r="F114" s="24"/>
-      <c r="G114" s="24"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A115" s="24"/>
-      <c r="B115" s="24"/>
-      <c r="C115" s="24"/>
-      <c r="D115" s="24"/>
-      <c r="E115" s="24"/>
-      <c r="F115" s="24"/>
-      <c r="G115" s="24"/>
+    <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="13"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13"/>
+    </row>
+    <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="13"/>
+      <c r="B107" s="13"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="13"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="13"/>
+      <c r="B109" s="13"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="13"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="13"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="13"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="13"/>
+      <c r="B112" s="13"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="13"/>
+      <c r="B113" s="13"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="13"/>
+      <c r="F113" s="13"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="13"/>
+      <c r="B114" s="13"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="13"/>
+      <c r="B115" s="13"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B10:E105">
-    <cfRule type="expression" dxfId="9" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
       <formula>COUNTIF(B10,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C6">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>COUNTIF(C2,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D105">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="between">
       <formula>0</formula>
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="greaterThanOrEqual">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
+  <dataValidations count="9">
     <dataValidation type="textLength" errorStyle="warning" operator="greaterThan" allowBlank="1" showErrorMessage="1" error="The Extraction ID cannot be left blank." prompt="Enter the Extraction ID" sqref="B10:B105" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Format" error="Exp Number should be three digits long" sqref="C6 F6:G8" xr:uid="{7F700A24-FACB-40FF-A73D-3494166CE29A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Experimental Aim" error="The aim must be 5-20 characters long as it is used to name folders downstream so can not be too verbose." sqref="C6 F6:G8" xr:uid="{9C75F18E-0FA2-45C4-8859-DF7209A58F83}"/>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter the initials for the users first and last name e.g. MW" sqref="C3 F3:G3" xr:uid="{2AAC5A81-6948-4ACD-A548-C707F177FEA5}">
-      <formula1>2</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Format" error="Exp Number should be three digits long" sqref="C5 F5:G5" xr:uid="{B354E1CA-6CE2-4987-A357-7F5A6832D8D5}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Format" error="Exp Number should be three digits long" sqref="C6 F7:F8" xr:uid="{7F700A24-FACB-40FF-A73D-3494166CE29A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Experimental Aim" error="The aim must be 5-20 characters long as it is used to name folders downstream so can not be too verbose." sqref="C6 F7:F8" xr:uid="{9C75F18E-0FA2-45C4-8859-DF7209A58F83}"/>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Format" error="Exp Number should be three digits long" sqref="C5" xr:uid="{B354E1CA-6CE2-4987-A357-7F5A6832D8D5}">
       <formula1>LEN(C5)=3</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" operator="greaterThan" allowBlank="1" showErrorMessage="1" error="The Extraction ID cannot be left blank." prompt="Enter the Extraction ID" sqref="C10" xr:uid="{4671ADE5-F535-4830-AEE1-5AAFCDEB7B14}">
@@ -2784,6 +2716,17 @@
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" operator="greaterThan" allowBlank="1" showErrorMessage="1" error="The Extraction ID cannot be left blank." prompt="Enter the Extraction ID" sqref="C11:C105" xr:uid="{90263FD8-A258-4500-8E21-E385F84EA53B}">
       <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a Number" error="Please enter a number (decimal or whole) for the post-PCR DNA concentration" sqref="D10:D105" xr:uid="{10D485B7-FF0F-4E67-AF1B-44C96547CAC9}">
+      <formula1>0.0000000000000001</formula1>
+      <formula2>9999999999</formula2>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a Date" error="Please check your entry and ensure it is a date in the format YYY-MM-DD e.g. 2024-10-28" sqref="C2:E2" xr:uid="{6948A87B-14F5-4864-A3CB-3A5971E46210}">
+      <formula1>43831</formula1>
+      <formula2>TODAY()</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Number of initials" error="Please just enter the first and last name initials e.g. John Smith = JS" sqref="C3:E3" xr:uid="{6E22CD84-505D-440D-BC75-9483B6185E39}">
+      <formula1>2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.23611111111111099" right="0.23611111111111099" top="0.74791666666666701" bottom="0.74791666666666701" header="0.511811023622047" footer="0.511811023622047"/>
